--- a/labs/lab3/fluff_tablel3-e.xlsx
+++ b/labs/lab3/fluff_tablel3-e.xlsx
@@ -389,13 +389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.95235100931754</v>
+        <v>-0.2661624465285535</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2046718843831308</v>
+        <v>-0.7474398876803781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1048335485813463</v>
+        <v>2.808209412818851</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -403,13 +403,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2046718843831308</v>
+        <v>-0.7474398876803781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5321086915947126</v>
+        <v>0.09510479743735556</v>
       </c>
       <c r="D3" t="n">
-        <v>2.599813321690263</v>
+        <v>0.1272407306659883</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -417,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5321086915947126</v>
+        <v>0.09510479743735556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3566796656342672</v>
+        <v>0.02811054357426512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6703135492211371</v>
+        <v>0.2955744014152516</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3566796656342672</v>
+        <v>0.02811054357426512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05766013696076611</v>
+        <v>-0.001956090620948481</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1616580436628808</v>
+        <v>0.06958565620692085</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05766013696076611</v>
+        <v>-0.001956090620948481</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02134415977049975</v>
+        <v>-4.978827617074799e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3701718534769182</v>
+        <v>0.02545294969340754</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.02134415977049975</v>
+        <v>-4.978827617074799e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001031154460082839</v>
+        <v>-8.786898927359843e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04831084808070175</v>
+        <v>0.01764853014236792</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -473,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001031154460082839</v>
+        <v>-8.786898927359843e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006107846515673865</v>
+        <v>1.582506403696726e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5923309021214127</v>
+        <v>0.01800983961212143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -487,13 +487,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0006107846515673865</v>
+        <v>1.582506403696726e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>3.260470892552103e-05</v>
+        <v>3.043102103639228e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05338167690011743</v>
+        <v>0.1922963532109923</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -501,13 +501,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3.260470892552103e-05</v>
+        <v>3.043102103639228e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0001739980350020653</v>
+        <v>-1.757871626040242e-11</v>
       </c>
       <c r="D10" t="n">
-        <v>5.33659218978244</v>
+        <v>0.00577657786749256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0001739980350020653</v>
+        <v>-1.757871626040242e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000170576476768769</v>
+        <v>-3.031297435285296e-11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.980335650151131</v>
+        <v>1.724413427227082</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -529,13 +529,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.000170576476768769</v>
+        <v>-3.031297435285296e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.65269717740258e-05</v>
+        <v>-8.784084570834239e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5072620411272799</v>
+        <v>0.0289779698573443</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -543,13 +543,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-8.65269717740258e-05</v>
+        <v>-8.784084570834239e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>8.415496988267712e-06</v>
+        <v>4.671818487622659e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09725865606675407</v>
+        <v>0.531850353892821</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -557,13 +557,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.415496988267712e-06</v>
+        <v>4.671818487622659e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>8.242898096066931e-05</v>
+        <v>3.785860513971784e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>9.794903506659908</v>
+        <v>0.08103612167300381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.242898096066931e-05</v>
+        <v>3.785860513971784e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001247448381721528</v>
+        <v>-8.992806499463768e-15</v>
       </c>
       <c r="D15" t="n">
-        <v>1.513361401758373</v>
+        <v>0.2375366568914956</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -585,13 +585,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001247448381721528</v>
+        <v>-8.992806499463768e-15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001356017382245778</v>
+        <v>-1.332267629550188e-15</v>
       </c>
       <c r="D16" t="n">
-        <v>1.087032860128786</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -599,13 +599,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0001356017382245778</v>
+        <v>-1.332267629550188e-15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001205168596281059</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8887560086325076</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -613,13 +613,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001205168596281059</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C18" t="n">
-        <v>8.702483192890575e-05</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7220967439530809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -627,13 +627,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>8.702483192890575e-05</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C19" t="n">
-        <v>4.282243264774888e-05</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4920714202899274</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
